--- a/dataSources/WSR/workday.xlsx
+++ b/dataSources/WSR/workday.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3C4DA-836B-4C1F-91C3-A61BF7CA6B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528BA6E-46CA-410F-B4A0-8C9566E2B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
+    <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="219">
   <si>
     <t>Task Name</t>
   </si>
@@ -919,12 +921,109 @@
   <si>
     <t>Project Metrics</t>
   </si>
+  <si>
+    <t>Observation_306</t>
+  </si>
+  <si>
+    <t>INT141 schedule configuration issue.</t>
+  </si>
+  <si>
+    <t>INT141 not processing SINV/ ER settled on Back date in OAK-2</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Monitoring data count &amp; performance</t>
+  </si>
+  <si>
+    <r>
+      <t>Phase-5:- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power Bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> validation: On Hold</t>
+    </r>
+  </si>
+  <si>
+    <t>Enhance scripts for WD &amp; vEMS allocation variants as needed</t>
+  </si>
+  <si>
+    <t>Test execution - In Progress (Impacted due to issue)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-30-Jan</t>
+  </si>
+  <si>
+    <t>Observation_309</t>
+  </si>
+  <si>
+    <t>Geneva Accrual failed due to in-correct Allowability matrix update at vEMS</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Phase-5:- Fine tuned scripts for WOR-939 having WD &amp; vEMS allocation variations- Checked &amp; verified</t>
+  </si>
+  <si>
+    <t>Observation_310</t>
+  </si>
+  <si>
+    <t>In-valid SC, BR combination for accounting adjustment at vEMS. Due to wrong SC selection at WD</t>
+  </si>
+  <si>
+    <t>Observation_311</t>
+  </si>
+  <si>
+    <t>Validation error occurred. Transaction credits or debits must be populated if the line companies have different ledger currencies.</t>
+  </si>
+  <si>
+    <t>Test execution - In Progress (Blocked due to issues)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-02-Feb</t>
+  </si>
+  <si>
+    <t>Observation_312</t>
+  </si>
+  <si>
+    <t>Validation error occurred. The Accounting Journal is posted or canceled or is an intercompany or reversal journal and cannot be submitted.</t>
+  </si>
+  <si>
+    <t>Observation_313</t>
+  </si>
+  <si>
+    <t>Validation error occurred. Invalid ID value.  'CUST-00003059' is not a valid ID value for type = 'Customer_Reference_ID'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,12 +1035,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,7 +1077,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -996,18 +1097,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,6 +1134,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1052,7 +1190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1210,11 +1348,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1388,6 +1695,165 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1679,36 +2145,36 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +2246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +2322,7 @@
       </c>
       <c r="AD2" s="56"/>
     </row>
-    <row r="3" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1930,7 +2396,7 @@
       </c>
       <c r="AD3" s="56"/>
     </row>
-    <row r="4" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -2004,7 +2470,7 @@
       </c>
       <c r="AD4" s="56"/>
     </row>
-    <row r="5" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +2540,7 @@
       </c>
       <c r="AD5" s="56"/>
     </row>
-    <row r="6" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2134,7 +2600,7 @@
       </c>
       <c r="AD6" s="56"/>
     </row>
-    <row r="7" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -2174,7 +2640,7 @@
       </c>
       <c r="AD7" s="56"/>
     </row>
-    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -2210,7 +2676,7 @@
       <c r="AC8" s="56"/>
       <c r="AD8" s="56"/>
     </row>
-    <row r="9" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -2246,7 +2712,7 @@
       <c r="AC9" s="56"/>
       <c r="AD9" s="56"/>
     </row>
-    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -2278,7 +2744,7 @@
       <c r="AC10" s="56"/>
       <c r="AD10" s="56"/>
     </row>
-    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -2310,7 +2776,7 @@
       <c r="AC11" s="56"/>
       <c r="AD11" s="56"/>
     </row>
-    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -2342,7 +2808,7 @@
       <c r="AC12" s="56"/>
       <c r="AD12" s="56"/>
     </row>
-    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -2374,7 +2840,7 @@
       <c r="AC13" s="56"/>
       <c r="AD13" s="56"/>
     </row>
-    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -2406,7 +2872,7 @@
       <c r="AC14" s="56"/>
       <c r="AD14" s="56"/>
     </row>
-    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -2438,7 +2904,7 @@
       <c r="AC15" s="56"/>
       <c r="AD15" s="56"/>
     </row>
-    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -2470,8 +2936,8 @@
       <c r="AC16" s="56"/>
       <c r="AD16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2486,36 +2952,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +3053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -2652,7 +3118,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>135</v>
       </c>
@@ -2715,7 +3181,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>121</v>
       </c>
@@ -2778,7 +3244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -2829,7 +3295,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>80</v>
       </c>
@@ -2872,7 +3338,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="56"/>
@@ -2907,7 +3373,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="56"/>
@@ -2938,7 +3404,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -2969,7 +3435,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -3000,7 +3466,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -3031,7 +3497,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -3062,7 +3528,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -3093,7 +3559,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -3124,7 +3590,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -3155,7 +3621,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -3186,8 +3652,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3201,36 +3667,36 @@
       <selection activeCell="Q2" sqref="Q2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3302,7 +3768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -3375,7 +3841,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>135</v>
       </c>
@@ -3438,7 +3904,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>121</v>
       </c>
@@ -3501,7 +3967,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -3552,7 +4018,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -3595,7 +4061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>80</v>
       </c>
@@ -3634,7 +4100,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -3665,7 +4131,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -3696,7 +4162,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -3727,7 +4193,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -3758,7 +4224,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -3789,7 +4255,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -3820,7 +4286,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -3851,7 +4317,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -3882,7 +4348,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -3913,8 +4379,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3928,36 +4394,36 @@
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -4102,7 +4568,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>135</v>
       </c>
@@ -4175,7 +4641,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -4248,7 +4714,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -4307,7 +4773,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>158</v>
       </c>
@@ -4358,7 +4824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>79</v>
       </c>
@@ -4397,7 +4863,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>80</v>
       </c>
@@ -4432,7 +4898,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -4463,7 +4929,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -4494,7 +4960,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -4525,7 +4991,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -4556,7 +5022,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -4587,7 +5053,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -4618,7 +5084,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -4649,7 +5115,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -4680,8 +5146,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4695,36 +5161,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +5262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -4861,7 +5327,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>151</v>
       </c>
@@ -4924,7 +5390,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -4987,7 +5453,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>158</v>
       </c>
@@ -5046,7 +5512,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -5097,7 +5563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="56"/>
@@ -5132,7 +5598,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -5163,7 +5629,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -5194,7 +5660,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -5225,7 +5691,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -5256,7 +5722,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -5287,7 +5753,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -5318,7 +5784,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -5349,7 +5815,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -5380,7 +5846,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -5411,8 +5877,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5426,36 +5892,36 @@
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -5600,7 +6066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>151</v>
       </c>
@@ -5673,7 +6139,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -5746,7 +6212,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>158</v>
       </c>
@@ -5805,7 +6271,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -5856,7 +6322,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>177</v>
       </c>
@@ -5895,7 +6361,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -5926,7 +6392,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -5957,7 +6423,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -5988,7 +6454,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -6019,7 +6485,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -6050,7 +6516,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -6081,7 +6547,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -6112,7 +6578,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -6143,7 +6609,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -6174,8 +6640,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6185,40 +6651,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037E2779-4546-4B5A-A676-037DEB07C92C}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6290,7 +6756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -6363,7 +6829,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>77</v>
       </c>
@@ -6436,7 +6902,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>158</v>
       </c>
@@ -6509,7 +6975,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
@@ -6578,7 +7044,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -6639,7 +7105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="29">
         <v>11</v>
@@ -6676,7 +7142,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -6707,7 +7173,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -6738,7 +7204,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -6769,7 +7235,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -6800,7 +7266,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -6831,7 +7297,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -6862,7 +7328,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -6893,7 +7359,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -6924,7 +7390,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -6955,9 +7421,1830 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E804153F-745A-4072-AD88-E529429712B3}">
+  <dimension ref="A1:AD20"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="65"/>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="90">
+        <v>3</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="97">
+        <v>20</v>
+      </c>
+      <c r="F2" s="99"/>
+      <c r="G2" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="103"/>
+      <c r="L2" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="S2" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="116">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="118">
+        <v>288</v>
+      </c>
+      <c r="AD2" s="92"/>
+    </row>
+    <row r="3" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="113"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="113"/>
+    </row>
+    <row r="4" spans="1:30" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="75">
+        <v>3</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="83">
+        <v>757</v>
+      </c>
+      <c r="AD4" s="76"/>
+    </row>
+    <row r="5" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="120">
+        <v>15</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="95">
+        <v>2</v>
+      </c>
+      <c r="F5" s="99"/>
+      <c r="G5" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="103"/>
+      <c r="L5" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="116">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="118">
+        <v>287</v>
+      </c>
+      <c r="AD5" s="92"/>
+    </row>
+    <row r="6" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="104"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="113"/>
+    </row>
+    <row r="7" spans="1:30" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="75">
+        <v>5</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="85">
+        <v>45316</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="87">
+        <v>45321</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" s="82">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>1402</v>
+      </c>
+      <c r="AD7" s="76"/>
+    </row>
+    <row r="8" spans="1:30" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="75">
+        <v>6</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="87">
+        <v>45316</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="82">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="83">
+        <v>118</v>
+      </c>
+      <c r="AD8" s="76"/>
+    </row>
+    <row r="9" spans="1:30" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC9" s="89">
+        <v>0.997</v>
+      </c>
+      <c r="AD9" s="76"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="76"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="76"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="76"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="76"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="76"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="76"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="76"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB16E3D-EA73-41E0-A7D8-833C6693BB44}">
+  <dimension ref="A1:AD19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="65"/>
+    </row>
+    <row r="2" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="75">
+        <v>4.5</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="84">
+        <v>18</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="83">
+        <v>288</v>
+      </c>
+      <c r="AD2" s="76"/>
+    </row>
+    <row r="3" spans="1:30" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5">
+        <v>19</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="83">
+        <v>757</v>
+      </c>
+      <c r="AD3" s="76"/>
+    </row>
+    <row r="4" spans="1:30" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="120">
+        <v>20</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="95">
+        <v>2</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="122"/>
+      <c r="J4" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="103"/>
+      <c r="L4" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="R4" s="109" t="s">
+        <v>212</v>
+      </c>
+      <c r="S4" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="116">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="118">
+        <v>287</v>
+      </c>
+      <c r="AD4" s="92"/>
+    </row>
+    <row r="5" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="104"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="113"/>
+    </row>
+    <row r="6" spans="1:30" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="75">
+        <v>6</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="87">
+        <v>45324</v>
+      </c>
+      <c r="J6" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="86"/>
+      <c r="L6" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="87">
+        <v>45324</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="82">
+        <v>79</v>
+      </c>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" s="83">
+        <v>1481</v>
+      </c>
+      <c r="AD6" s="76"/>
+    </row>
+    <row r="7" spans="1:30" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="75">
+        <v>6</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="87">
+        <v>45324</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="R7" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="82">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>123</v>
+      </c>
+      <c r="AD7" s="76"/>
+    </row>
+    <row r="8" spans="1:30" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC8" s="89">
+        <v>0.997</v>
+      </c>
+      <c r="AD8" s="76"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="76"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="76"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="76"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="76"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="76"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="76"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="76"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="76"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6970,36 +9257,36 @@
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7071,7 +9358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7146,7 +9433,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -7209,7 +9496,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -7272,7 +9559,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -7331,7 +9618,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -7390,7 +9677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -7429,7 +9716,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -7464,7 +9751,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -7499,7 +9786,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -7530,7 +9817,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -7561,7 +9848,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -7592,7 +9879,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -7623,7 +9910,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -7654,7 +9941,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -7685,7 +9972,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -7716,8 +10003,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7732,36 +10019,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7833,7 +10120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7900,7 +10187,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -7963,7 +10250,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -8026,7 +10313,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -8085,7 +10372,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -8144,7 +10431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -8183,7 +10470,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -8218,7 +10505,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -8253,7 +10540,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -8284,7 +10571,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -8315,7 +10602,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -8346,7 +10633,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -8377,7 +10664,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -8408,7 +10695,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -8439,7 +10726,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -8470,8 +10757,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8486,36 +10773,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8587,7 +10874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -8662,7 +10949,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -8735,7 +11022,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -8808,7 +11095,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -8867,7 +11154,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -8926,7 +11213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -8965,7 +11252,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -9000,7 +11287,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -9035,7 +11322,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -9066,7 +11353,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -9097,7 +11384,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -9128,7 +11415,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -9159,7 +11446,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -9190,7 +11477,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -9221,7 +11508,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -9252,8 +11539,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9268,36 +11555,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9369,7 +11656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -9444,7 +11731,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -9507,7 +11794,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -9570,7 +11857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -9629,7 +11916,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -9688,7 +11975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -9727,7 +12014,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -9762,7 +12049,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -9797,7 +12084,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -9828,7 +12115,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -9859,7 +12146,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -9890,7 +12177,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -9921,7 +12208,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -9952,7 +12239,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -9983,7 +12270,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -10014,8 +12301,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10030,36 +12317,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -10131,7 +12418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -10201,7 +12488,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -10269,7 +12556,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -10328,7 +12615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
@@ -10374,7 +12661,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -10420,7 +12707,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -10437,29 +12724,29 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y8" s="56"/>
       <c r="Z8" s="56"/>
       <c r="AA8" s="56"/>
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10473,35 +12760,35 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -10573,7 +12860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -10639,7 +12926,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -10705,7 +12992,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -10771,7 +13058,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
@@ -10816,7 +13103,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -10849,7 +13136,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -10890,7 +13177,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
@@ -10909,36 +13196,36 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10952,36 +13239,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11053,7 +13340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -11118,7 +13405,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -11181,7 +13468,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -11244,7 +13531,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>121</v>
       </c>
@@ -11297,7 +13584,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
@@ -11350,7 +13637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
@@ -11399,7 +13686,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
@@ -11436,7 +13723,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -11467,7 +13754,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -11498,7 +13785,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -11529,7 +13816,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -11560,7 +13847,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -11591,7 +13878,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -11622,7 +13909,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -11653,7 +13940,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -11684,25 +13971,25 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11716,40 +14003,40 @@
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="1"/>
-    <col min="28" max="28" width="11.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" style="1"/>
+    <col min="28" max="28" width="11.6328125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.54296875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11821,7 +14108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -11894,7 +14181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>50</v>
       </c>
@@ -11967,7 +14254,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>121</v>
       </c>
@@ -12030,7 +14317,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -12081,7 +14368,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -12124,7 +14411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>80</v>
       </c>
@@ -12163,7 +14450,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>133</v>
       </c>
@@ -12198,7 +14485,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -12229,7 +14516,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -12260,7 +14547,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -12291,7 +14578,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -12322,7 +14609,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -12353,7 +14640,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -12384,7 +14671,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -12415,7 +14702,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -12446,8 +14733,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="L6:L7"/>
@@ -12459,12 +14746,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12645,15 +14929,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12678,10 +14966,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataSources/WSR/workday.xlsx
+++ b/dataSources/WSR/workday.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528BA6E-46CA-410F-B4A0-8C9566E2B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0885C-B37F-43FA-9064-FF7154AD941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -1685,18 +1685,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1762,75 +1750,20 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1844,17 +1777,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2145,36 +2145,36 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="AD2" s="56"/>
     </row>
-    <row r="3" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AD3" s="56"/>
     </row>
-    <row r="4" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AD4" s="56"/>
     </row>
-    <row r="5" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="AD5" s="56"/>
     </row>
-    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="AD6" s="56"/>
     </row>
-    <row r="7" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="AD7" s="56"/>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="AC8" s="56"/>
       <c r="AD8" s="56"/>
     </row>
-    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="AC9" s="56"/>
       <c r="AD9" s="56"/>
     </row>
-    <row r="10" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -2744,7 +2744,7 @@
       <c r="AC10" s="56"/>
       <c r="AD10" s="56"/>
     </row>
-    <row r="11" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -2776,7 +2776,7 @@
       <c r="AC11" s="56"/>
       <c r="AD11" s="56"/>
     </row>
-    <row r="12" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -2808,7 +2808,7 @@
       <c r="AC12" s="56"/>
       <c r="AD12" s="56"/>
     </row>
-    <row r="13" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -2840,7 +2840,7 @@
       <c r="AC13" s="56"/>
       <c r="AD13" s="56"/>
     </row>
-    <row r="14" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -2872,7 +2872,7 @@
       <c r="AC14" s="56"/>
       <c r="AD14" s="56"/>
     </row>
-    <row r="15" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -2904,7 +2904,7 @@
       <c r="AC15" s="56"/>
       <c r="AD15" s="56"/>
     </row>
-    <row r="16" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -2936,8 +2936,8 @@
       <c r="AC16" s="56"/>
       <c r="AD16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2952,36 +2952,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>135</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>121</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>80</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="56"/>
@@ -3373,7 +3373,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="56"/>
@@ -3404,7 +3404,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -3435,7 +3435,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -3466,7 +3466,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -3497,7 +3497,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -3528,7 +3528,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -3559,7 +3559,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -3590,7 +3590,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -3621,7 +3621,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -3652,8 +3652,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3667,36 +3667,36 @@
       <selection activeCell="Q2" sqref="Q2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>135</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>121</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>80</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -4131,7 +4131,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -4162,7 +4162,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -4193,7 +4193,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -4224,7 +4224,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -4255,7 +4255,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -4286,7 +4286,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -4317,7 +4317,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -4348,7 +4348,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -4379,8 +4379,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4394,36 +4394,36 @@
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>135</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>158</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>79</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>80</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -4929,7 +4929,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -4960,7 +4960,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -4991,7 +4991,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -5022,7 +5022,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -5053,7 +5053,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -5084,7 +5084,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -5115,7 +5115,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -5146,8 +5146,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5157,40 +5157,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CA813-BB59-43B8-B885-F88889798DF6}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5256,13 +5256,13 @@
       </c>
       <c r="AA1" s="44"/>
       <c r="AB1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>151</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>158</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="56"/>
@@ -5598,7 +5598,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -5629,7 +5629,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -5660,7 +5660,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -5691,7 +5691,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -5722,7 +5722,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -5753,7 +5753,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -5784,7 +5784,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -5815,7 +5815,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -5846,7 +5846,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -5877,8 +5877,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5888,40 +5888,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E3A7AF-8428-4929-90E3-E7CB720AC7A4}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5987,13 +5987,13 @@
       </c>
       <c r="AA1" s="44"/>
       <c r="AB1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>151</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>158</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>177</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -6392,7 +6392,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -6423,7 +6423,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -6454,7 +6454,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -6485,7 +6485,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -6516,7 +6516,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -6547,7 +6547,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -6578,7 +6578,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -6609,7 +6609,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -6640,8 +6640,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6655,36 +6655,36 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>77</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>158</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>177</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="29">
         <v>11</v>
@@ -7142,7 +7142,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="56"/>
@@ -7173,7 +7173,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -7204,7 +7204,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -7235,7 +7235,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -7266,7 +7266,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -7297,7 +7297,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -7328,7 +7328,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -7359,7 +7359,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -7390,7 +7390,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -7421,8 +7421,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7436,475 +7436,475 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="68" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="Z1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="67"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="AC1" s="69" t="s">
+      <c r="AC1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="65"/>
-    </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="AD1" s="61"/>
+    </row>
+    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="121">
         <v>3</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="95" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="122">
         <v>20</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="101" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="105" t="s">
+      <c r="K2" s="109"/>
+      <c r="L2" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="107" t="s">
+      <c r="O2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="109" t="s">
+      <c r="P2" s="103"/>
+      <c r="Q2" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="S2" s="92" t="s">
+      <c r="S2" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="109" t="s">
+      <c r="T2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="109" t="s">
+      <c r="U2" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="116" t="s">
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="116">
+      <c r="Z2" s="91">
         <v>0</v>
       </c>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116" t="s">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="118">
+      <c r="AC2" s="93">
         <v>288</v>
       </c>
-      <c r="AD2" s="92"/>
-    </row>
-    <row r="3" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="112"/>
+      <c r="AD2" s="95"/>
+    </row>
+    <row r="3" spans="1:30" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="S3" s="113"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="113"/>
-    </row>
-    <row r="4" spans="1:30" ht="218" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="74" t="s">
+      <c r="S3" s="96"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="96"/>
+    </row>
+    <row r="4" spans="1:30" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="71">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="75" t="s">
         <v>180</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="77" t="s">
         <v>141</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="76"/>
+      <c r="S4" s="72"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="82" t="s">
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="82">
+      <c r="Z4" s="78">
         <v>0</v>
       </c>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82" t="s">
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="83">
+      <c r="AC4" s="79">
         <v>757</v>
       </c>
-      <c r="AD4" s="76"/>
-    </row>
-    <row r="5" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="120" t="s">
+      <c r="AD4" s="72"/>
+    </row>
+    <row r="5" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="120">
+      <c r="B5" s="111">
         <v>15</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="109" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="115">
         <v>2</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="121" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="71" t="s">
+      <c r="I5" s="107"/>
+      <c r="J5" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="122" t="s">
+      <c r="K5" s="109"/>
+      <c r="L5" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="122" t="s">
+      <c r="M5" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="122" t="s">
+      <c r="N5" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="116" t="s">
+      <c r="P5" s="103"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="116">
+      <c r="Z5" s="91">
         <v>0</v>
       </c>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116" t="s">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="118">
+      <c r="AC5" s="93">
         <v>287</v>
       </c>
-      <c r="AD5" s="92"/>
-    </row>
-    <row r="6" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="79" t="s">
+      <c r="AD5" s="95"/>
+    </row>
+    <row r="6" spans="1:30" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="81" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="113"/>
-    </row>
-    <row r="7" spans="1:30" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="74" t="s">
+      <c r="P6" s="104"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="96"/>
+    </row>
+    <row r="7" spans="1:30" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="71">
         <v>5</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="81">
         <v>45316</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="80" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="87">
+      <c r="N7" s="83">
         <v>45321</v>
       </c>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="77" t="s">
         <v>203</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="82" t="s">
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="82">
+      <c r="Z7" s="78">
         <v>30</v>
       </c>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82" t="s">
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="AC7" s="83">
+      <c r="AC7" s="79">
         <v>1402</v>
       </c>
-      <c r="AD7" s="76"/>
-    </row>
-    <row r="8" spans="1:30" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="74" t="s">
+      <c r="AD7" s="72"/>
+    </row>
+    <row r="8" spans="1:30" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="71">
         <v>6</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="83">
         <v>45316</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="77" t="s">
         <v>191</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="82" t="s">
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="Z8" s="82">
+      <c r="Z8" s="78">
         <v>1</v>
       </c>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82" t="s">
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="AC8" s="83">
+      <c r="AC8" s="79">
         <v>118</v>
       </c>
-      <c r="AD8" s="76"/>
-    </row>
-    <row r="9" spans="1:30" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="76"/>
+      <c r="AD8" s="72"/>
+    </row>
+    <row r="9" spans="1:30" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7915,32 +7915,32 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82" t="s">
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="89">
+      <c r="AC9" s="85">
         <v>0.997</v>
       </c>
-      <c r="AD9" s="76"/>
-    </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="76"/>
+      <c r="AD9" s="72"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7950,29 +7950,29 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="76"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -7982,29 +7982,29 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="76"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -8014,29 +8014,29 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="76"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -8046,275 +8046,259 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="76"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="76"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="72"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="72"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="72"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -8331,20 +8315,36 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8354,128 +8354,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB16E3D-EA73-41E0-A7D8-833C6693BB44}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="68" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="Z1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="67"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="AC1" s="69" t="s">
+      <c r="AC1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="65"/>
-    </row>
-    <row r="2" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="AD1" s="61"/>
+    </row>
+    <row r="2" spans="1:30" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="71">
         <v>4.5</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="80">
         <v>18</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="123" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="77" t="s">
         <v>165</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="123" t="s">
+      <c r="L2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="77" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="3"/>
@@ -8485,7 +8485,7 @@
       <c r="R2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="72" t="s">
         <v>206</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -8494,62 +8494,62 @@
       <c r="U2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="82" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="82">
+      <c r="Z2" s="78">
         <v>0</v>
       </c>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="83">
+      <c r="AC2" s="79">
         <v>288</v>
       </c>
-      <c r="AD2" s="76"/>
-    </row>
-    <row r="3" spans="1:30" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="74" t="s">
+      <c r="AD2" s="72"/>
+    </row>
+    <row r="3" spans="1:30" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="71">
         <v>2.5</v>
       </c>
-      <c r="C3" s="76"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="5">
         <v>19</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="77" t="s">
         <v>208</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="77" t="s">
         <v>141</v>
       </c>
       <c r="P3" s="3"/>
@@ -8559,7 +8559,7 @@
       <c r="R3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="72" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -8568,271 +8568,271 @@
       <c r="U3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="82" t="s">
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="82">
+      <c r="Z3" s="78">
         <v>0</v>
       </c>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82" t="s">
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="83">
+      <c r="AC3" s="79">
         <v>757</v>
       </c>
-      <c r="AD3" s="76"/>
-    </row>
-    <row r="4" spans="1:30" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
+      <c r="AD3" s="72"/>
+    </row>
+    <row r="4" spans="1:30" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="120">
+      <c r="B4" s="111">
         <v>20</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="109" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="115">
         <v>2</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="105"/>
+      <c r="G4" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="122" t="s">
+      <c r="K4" s="109"/>
+      <c r="L4" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="M4" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="122" t="s">
+      <c r="N4" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="109" t="s">
+      <c r="P4" s="103"/>
+      <c r="Q4" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="109" t="s">
+      <c r="R4" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="109" t="s">
+      <c r="T4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="116" t="s">
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="116">
+      <c r="Z4" s="91">
         <v>0</v>
       </c>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116" t="s">
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="AC4" s="118">
+      <c r="AC4" s="93">
         <v>287</v>
       </c>
-      <c r="AD4" s="92"/>
-    </row>
-    <row r="5" spans="1:30" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="81" t="s">
+      <c r="AD4" s="95"/>
+    </row>
+    <row r="5" spans="1:30" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="81" t="s">
+      <c r="K5" s="110"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="113"/>
-    </row>
-    <row r="6" spans="1:30" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="74" t="s">
+      <c r="P5" s="104"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="96"/>
+    </row>
+    <row r="6" spans="1:30" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="71">
         <v>6</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="80" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="83">
         <v>45324</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="80" t="s">
+      <c r="K6" s="82"/>
+      <c r="L6" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="87">
+      <c r="N6" s="83">
         <v>45324</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="77" t="s">
         <v>214</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="76" t="s">
+      <c r="Q6" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="R6" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="76" t="s">
+      <c r="T6" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="82" t="s">
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="82">
+      <c r="Z6" s="78">
         <v>79</v>
       </c>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82" t="s">
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="AC6" s="83">
+      <c r="AC6" s="79">
         <v>1481</v>
       </c>
-      <c r="AD6" s="76"/>
-    </row>
-    <row r="7" spans="1:30" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="74" t="s">
+      <c r="AD6" s="72"/>
+    </row>
+    <row r="7" spans="1:30" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="71">
         <v>6</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="87">
+      <c r="N7" s="83">
         <v>45324</v>
       </c>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="77" t="s">
         <v>191</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="76" t="s">
+      <c r="Q7" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="76" t="s">
+      <c r="R7" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="S7" s="76" t="s">
+      <c r="S7" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="76" t="s">
+      <c r="T7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="76" t="s">
+      <c r="U7" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="82" t="s">
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="Z7" s="82">
+      <c r="Z7" s="78">
         <v>5</v>
       </c>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82" t="s">
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="83">
+      <c r="AC7" s="79">
         <v>123</v>
       </c>
-      <c r="AD7" s="76"/>
-    </row>
-    <row r="8" spans="1:30" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="76"/>
+      <c r="AD7" s="72"/>
+    </row>
+    <row r="8" spans="1:30" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -8843,32 +8843,32 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82" t="s">
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="AC8" s="89">
+      <c r="AC8" s="85">
         <v>0.997</v>
       </c>
-      <c r="AD8" s="76"/>
-    </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="76"/>
+      <c r="AD8" s="72"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -8878,29 +8878,29 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="76"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -8910,29 +8910,29 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="76"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -8942,29 +8942,29 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="76"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -8974,248 +8974,266 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="76"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="72"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="72"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
@@ -9226,24 +9244,6 @@
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9257,36 +9257,36 @@
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -9751,7 +9751,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -9817,7 +9817,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -9848,7 +9848,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -9879,7 +9879,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -9910,7 +9910,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -9941,7 +9941,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -9972,7 +9972,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -10003,8 +10003,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10019,36 +10019,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -10571,7 +10571,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -10602,7 +10602,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -10633,7 +10633,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -10664,7 +10664,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -10695,7 +10695,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -10726,7 +10726,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -10757,8 +10757,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10773,36 +10773,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -11353,7 +11353,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -11384,7 +11384,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -11415,7 +11415,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -11446,7 +11446,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -11477,7 +11477,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -11508,7 +11508,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -11539,8 +11539,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11555,36 +11555,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="76.08984375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="76.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
@@ -12049,7 +12049,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -12084,7 +12084,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -12115,7 +12115,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -12146,7 +12146,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -12177,7 +12177,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -12208,7 +12208,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -12239,7 +12239,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -12270,7 +12270,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -12301,8 +12301,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12317,36 +12317,36 @@
       <selection activeCell="Y1" sqref="Y1:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -12724,29 +12724,29 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y8" s="56"/>
       <c r="Z8" s="56"/>
       <c r="AA8" s="56"/>
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12760,35 +12760,35 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -13058,32 +13058,32 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="11">
         <v>18.5</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="87" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="87" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -13103,22 +13103,22 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
       <c r="O6" s="11" t="s">
         <v>112</v>
       </c>
@@ -13136,32 +13136,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="11">
         <v>4.5</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="88">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="88">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -13177,16 +13177,16 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="11" t="s">
         <v>116</v>
       </c>
@@ -13196,36 +13196,36 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13239,36 +13239,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -13496,13 +13496,13 @@
         <v>119</v>
       </c>
       <c r="K4" s="56"/>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="89" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -13531,7 +13531,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>121</v>
       </c>
@@ -13542,22 +13542,22 @@
       <c r="D5" s="56"/>
       <c r="E5" s="57"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="89" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
       <c r="K5" s="56"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="3" t="s">
         <v>112</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
@@ -13595,20 +13595,20 @@
       <c r="D6" s="56"/>
       <c r="E6" s="57"/>
       <c r="F6" s="56"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="3" t="s">
         <v>111</v>
       </c>
       <c r="K6" s="56"/>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="90">
         <v>45261</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -13637,7 +13637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
@@ -13648,22 +13648,22 @@
       <c r="D7" s="56"/>
       <c r="E7" s="57"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="90">
         <v>45261</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="K7" s="56"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="3" t="s">
         <v>122</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
@@ -13697,9 +13697,9 @@
       <c r="D8" s="56"/>
       <c r="E8" s="57"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="3" t="s">
         <v>123</v>
       </c>
@@ -13723,7 +13723,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -13754,7 +13754,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -13785,7 +13785,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -13816,7 +13816,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -13847,7 +13847,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -13878,7 +13878,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -13909,7 +13909,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -13940,7 +13940,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -13971,25 +13971,25 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14003,40 +14003,40 @@
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" style="1"/>
-    <col min="28" max="28" width="11.6328125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.54296875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="11.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>23</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>50</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>121</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
@@ -14384,9 +14384,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="35"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="11"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="56"/>
@@ -14411,7 +14411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>80</v>
       </c>
@@ -14427,9 +14427,9 @@
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="11"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="56"/>
@@ -14450,7 +14450,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>133</v>
       </c>
@@ -14485,7 +14485,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
@@ -14516,7 +14516,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
@@ -14547,7 +14547,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
@@ -14578,7 +14578,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -14609,7 +14609,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -14640,7 +14640,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -14671,7 +14671,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
@@ -14702,7 +14702,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -14733,8 +14733,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="L6:L7"/>
@@ -14746,9 +14746,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14929,19 +14932,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14966,9 +14965,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataSources/WSR/workday.xlsx
+++ b/dataSources/WSR/workday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F5B7EE-A751-45B8-B1E9-053CAE3221B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE4642-FDE7-4228-8305-D77D4E4093D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="213">
   <si>
     <t>Task Name</t>
   </si>
@@ -1723,6 +1723,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1735,13 +1736,57 @@
     <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,66 +1800,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4349,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E4ABCF-EC28-4C2B-8135-143015940A5F}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5116,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CA813-BB59-43B8-B885-F88889798DF6}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5262,13 +5262,21 @@
         <v>24</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="Q2" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="V2" s="54"/>
       <c r="W2" s="54"/>
       <c r="X2" s="54"/>
@@ -5512,14 +5520,14 @@
         <v>211</v>
       </c>
       <c r="Z6" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="43"/>
       <c r="AB6" t="s">
         <v>211</v>
       </c>
       <c r="AC6" s="44">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -5848,7 +5856,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6278,7 +6286,7 @@
         <v>211</v>
       </c>
       <c r="AC6" s="44">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -6611,7 +6619,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7061,7 +7069,7 @@
         <v>211</v>
       </c>
       <c r="AC6" s="44">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7391,8 +7399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E804153F-745A-4072-AD88-E529429712B3}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+    <sheetView topLeftCell="S4" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7475,64 +7483,64 @@
       <c r="AD1" s="59"/>
     </row>
     <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="115">
         <v>3</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="94" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="116">
         <v>20</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="114" t="s">
+      <c r="K2" s="99"/>
+      <c r="L2" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="N2" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="105" t="s">
+      <c r="P2" s="105"/>
+      <c r="Q2" s="89" t="s">
         <v>179</v>
       </c>
       <c r="R2" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="S2" s="102" t="s">
+      <c r="S2" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="105" t="s">
+      <c r="T2" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="105" t="s">
+      <c r="U2" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="107"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="93"/>
       <c r="Y2" t="s">
         <v>207</v>
       </c>
@@ -7546,35 +7554,35 @@
       <c r="AC2" s="83">
         <v>288</v>
       </c>
-      <c r="AD2" s="117"/>
+      <c r="AD2" s="84"/>
     </row>
     <row r="3" spans="1:30" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="106"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="90"/>
       <c r="R3" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="103"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="108"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="94"/>
       <c r="Y3" t="s">
         <v>208</v>
       </c>
@@ -7652,55 +7660,55 @@
       <c r="AC4" s="83">
         <v>287</v>
       </c>
-      <c r="AD4" s="117"/>
+      <c r="AD4" s="84"/>
     </row>
     <row r="5" spans="1:30" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="107">
         <v>15</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="111">
         <v>2</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="116"/>
+      <c r="I5" s="97"/>
       <c r="J5" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="113" t="s">
+      <c r="K5" s="99"/>
+      <c r="L5" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="113" t="s">
+      <c r="M5" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="113" t="s">
+      <c r="N5" s="101" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="107"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="93"/>
       <c r="Y5" t="s">
         <v>210</v>
       </c>
@@ -7717,34 +7725,34 @@
       <c r="AD5" s="67"/>
     </row>
     <row r="6" spans="1:30" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
       <c r="O6" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="108"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="94"/>
       <c r="Y6" t="s">
         <v>211</v>
       </c>
@@ -7756,7 +7764,7 @@
         <v>211</v>
       </c>
       <c r="AC6" s="74">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AD6" s="67"/>
     </row>
@@ -8234,6 +8242,40 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
@@ -8244,41 +8286,7 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8289,7 +8297,7 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P5" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8520,62 +8528,62 @@
       <c r="AD3" s="67"/>
     </row>
     <row r="4" spans="1:30" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="107">
         <v>20</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="105" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="111">
         <v>2</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="113" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="113"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="113" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="101" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="105" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="105" t="s">
+      <c r="T4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="105" t="s">
+      <c r="U4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="107"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="93"/>
       <c r="Y4" t="s">
         <v>209</v>
       </c>
@@ -8589,37 +8597,37 @@
       <c r="AC4" s="83">
         <v>287</v>
       </c>
-      <c r="AD4" s="117"/>
+      <c r="AD4" s="84"/>
     </row>
     <row r="5" spans="1:30" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
       <c r="J5" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
       <c r="O5" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="108"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="94"/>
       <c r="Y5" t="s">
         <v>210</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>211</v>
       </c>
       <c r="AC6" s="74">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AD6" s="67"/>
     </row>
@@ -9143,21 +9151,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
@@ -9165,6 +9158,21 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="T4:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12986,25 +12994,25 @@
       <c r="B5" s="11">
         <v>18.5</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="85" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="85" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -13031,15 +13039,15 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
       <c r="O6" s="11" t="s">
         <v>97</v>
       </c>
@@ -13064,25 +13072,25 @@
       <c r="B7" s="11">
         <v>4.5</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="86">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="86">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -13099,15 +13107,15 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="11" t="s">
         <v>101</v>
       </c>
@@ -13135,18 +13143,18 @@
     <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13417,13 +13425,13 @@
         <v>104</v>
       </c>
       <c r="K4" s="54"/>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="87" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -13463,22 +13471,22 @@
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
       <c r="F5" s="54"/>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="87" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K5" s="54"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
       <c r="O5" s="3" t="s">
         <v>97</v>
       </c>
@@ -13516,20 +13524,20 @@
       <c r="D6" s="54"/>
       <c r="E6" s="55"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="3" t="s">
         <v>96</v>
       </c>
       <c r="K6" s="54"/>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="87">
+      <c r="N6" s="88">
         <v>45261</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -13569,22 +13577,22 @@
       <c r="D7" s="54"/>
       <c r="E7" s="55"/>
       <c r="F7" s="54"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="88">
         <v>45261</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="K7" s="54"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="3" t="s">
         <v>107</v>
       </c>
@@ -13618,9 +13626,9 @@
       <c r="D8" s="54"/>
       <c r="E8" s="55"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="3" t="s">
         <v>108</v>
       </c>
@@ -13899,18 +13907,18 @@
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14305,9 +14313,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="35"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="11"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="54"/>
@@ -14348,9 +14356,9 @@
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
       <c r="O7" s="11"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="54"/>
@@ -14667,9 +14675,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14850,19 +14861,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14887,9 +14894,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataSources/WSR/workday.xlsx
+++ b/dataSources/WSR/workday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{7CBE4642-FDE7-4228-8305-D77D4E4093D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2494C023-1C2B-42BA-B882-FB7D8459E3FE}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{7CBE4642-FDE7-4228-8305-D77D4E4093D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64D5F7BA-6572-4177-A498-FEA1B25A2B73}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="29 Jan 2024" sheetId="21" r:id="rId18"/>
     <sheet name="5 Feb 2024" sheetId="22" r:id="rId19"/>
     <sheet name="12 Feb 2024" sheetId="23" r:id="rId20"/>
+    <sheet name="19 Feb 2024" sheetId="25" r:id="rId21"/>
+    <sheet name="26 Feb 2024" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="252">
   <si>
     <t>Task Name</t>
   </si>
@@ -971,101 +973,136 @@
     <t>Phase-5:- Enhanced scripts for WOR-939 having WD &amp; vEMS allocation variations- Checked &amp; verified</t>
   </si>
   <si>
+    <t>FIN Reports Phase-2: In progress
+Monitoring data count &amp; performance</t>
+  </si>
+  <si>
+    <t>Test execution - In Progress (Addressed majority issues)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-09-Feb</t>
+  </si>
+  <si>
+    <t>Observation_318</t>
+  </si>
+  <si>
+    <t>Phase-5:- Enhanced scripts for WOR-939 having WD &amp; vEMS allocation variations - Checked &amp; verified</t>
+  </si>
+  <si>
+    <t>Observation_319</t>
+  </si>
+  <si>
+    <t>Observation_320</t>
+  </si>
+  <si>
+    <t>Test execution - Completed (few minor issues still open)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-15-Feb</t>
+  </si>
+  <si>
+    <t>Observation_321</t>
+  </si>
+  <si>
+    <t>Ledger period for year 2024 not opened which blocked SINV/ER Intercompany journal creation</t>
+  </si>
+  <si>
+    <t>WD: WOR-956 (2 recon lines for single SINV)</t>
+  </si>
+  <si>
+    <t>Understood the issue and fix, Trying to replicate exact case</t>
+  </si>
+  <si>
+    <t>Understood the issue and fix, will finish testing</t>
+  </si>
+  <si>
+    <t>WD: WOR-962 (Emp Name issue in Recon )</t>
+  </si>
+  <si>
+    <t>Understood the issue and fix, Testing in Progress</t>
+  </si>
+  <si>
+    <t>WD: WOR-956 (2 recon lines- single SINV)</t>
+  </si>
+  <si>
+    <t>Phase-5:- Adding new WD functionalities in scripts - In Progress</t>
+  </si>
+  <si>
+    <t>WD: WOR-962 (Emp Name issue in Recon)</t>
+  </si>
+  <si>
     <t>FIN Reports Phase-2: In progress</t>
   </si>
   <si>
-    <r>
-      <t>Phase-5:- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Power Bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> validation: On Hold</t>
-    </r>
-  </si>
-  <si>
-    <t>Monitoring data count &amp; performance</t>
-  </si>
-  <si>
-    <t>Enhance scripts for WD &amp; vEMS allocation variants as needed</t>
-  </si>
-  <si>
-    <t>Test execution - In Progress (Addressed majority issues)</t>
-  </si>
-  <si>
-    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-09-Feb</t>
-  </si>
-  <si>
-    <t>Observation_318</t>
-  </si>
-  <si>
-    <t>Phase-5:- Enhanced scripts for WOR-939 having WD &amp; vEMS allocation variations - Checked &amp; verified</t>
-  </si>
-  <si>
-    <t>Observation_319</t>
-  </si>
-  <si>
-    <t>Observation_320</t>
-  </si>
-  <si>
-    <t>Test execution - Completed (few minor issues still open)</t>
-  </si>
-  <si>
-    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-15-Feb</t>
-  </si>
-  <si>
-    <t>Observation_321</t>
-  </si>
-  <si>
-    <t>Ledger period for year 2024 not opened which blocked SINV/ER Intercompany journal creation</t>
-  </si>
-  <si>
-    <t>WD: WOR-956 (2 recon lines for single SINV)</t>
-  </si>
-  <si>
-    <t>Understood the issue and fix, Trying to replicate exact case</t>
-  </si>
-  <si>
-    <t>Understood the issue and fix, will finish testing</t>
-  </si>
-  <si>
-    <t>WD: WOR-962 (Emp Name issue in Recon )</t>
-  </si>
-  <si>
-    <t>Understood the issue and fix, Testing in Progress</t>
-  </si>
-  <si>
-    <t>WD: WOR-956 (2 recon lines- single SINV)</t>
-  </si>
-  <si>
-    <t>Phase-5:- Adding new WD functionalities in scripts - In Progress</t>
-  </si>
-  <si>
-    <t>WD: WOR-962 (Emp Name issue in Recon)</t>
-  </si>
-  <si>
     <t>FIN Reports Phase-2: In Progress</t>
   </si>
   <si>
-    <t>Completed new changes at WD, vEMS changes- In progress</t>
+    <t>Testing completed, will plan UAT</t>
+  </si>
+  <si>
+    <t>Observation_323</t>
+  </si>
+  <si>
+    <t>Found issue, Waiting for fix from Sundeep &amp; Vichara team</t>
+  </si>
+  <si>
+    <t>Will follow up with Sundeep &amp; Vichara team on the issue</t>
+  </si>
+  <si>
+    <t>Observation_324</t>
+  </si>
+  <si>
+    <t>Found issue, Waiting for fix from Sundeep</t>
+  </si>
+  <si>
+    <t>Observation_325</t>
+  </si>
+  <si>
+    <t>WD: WOR-783 (INT0208 update for InterCo SR)</t>
+  </si>
+  <si>
+    <t>Phase-5:- added new WD functionalities in scripts - Review In Progress</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In progress
+Sat date logic change for vEMS- In progress</t>
+  </si>
+  <si>
+    <t>Test execution - Completed, UAT kicked off</t>
+  </si>
+  <si>
+    <t>WOR-978: SC, BR, COA mapping</t>
+  </si>
+  <si>
+    <t>UAT has kicked off on Mar-01, will support UAT</t>
+  </si>
+  <si>
+    <t>Observation_326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"For SINV-00121151, Journal not created.
+Error: Validation error occurred. The Accounting Journal is posted or canceled or is an intercompany or reversal journal and cannot be submitted."
+</t>
+  </si>
+  <si>
+    <t>Issue resolved, waiting for new code deployment</t>
+  </si>
+  <si>
+    <t>WD: WOR-783 (INT0208 update InterCo SR)</t>
+  </si>
+  <si>
+    <t>Testing completed, will do documentation</t>
+  </si>
+  <si>
+    <t>Post documentation, will send for business sign off</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In progress
+Sat date logic change for vEMS- Completed</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In progress
+Will Monitor the daily status and highlight if anything fails</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1540,11 +1577,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1760,6 +1993,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1772,8 +2008,166 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1787,126 +2181,10 @@
     <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7665,87 +7943,87 @@
       <c r="W1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="98" t="s">
+      <c r="Y1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="98" t="s">
+      <c r="AA1"/>
+      <c r="AB1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="149">
+      <c r="B2" s="125">
         <v>2.5</v>
       </c>
       <c r="C2" s="53"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="54">
         <v>30</v>
       </c>
       <c r="F2" s="53"/>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="151" t="s">
+      <c r="I2" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="151" t="s">
+      <c r="J2" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="150" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="152" t="s">
+      <c r="M2" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="152" t="s">
+      <c r="N2" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="152" t="s">
+      <c r="O2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="102" t="s">
+      <c r="R2" s="4" t="s">
         <v>176</v>
       </c>
       <c r="S2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="4" t="s">
         <v>165</v>
       </c>
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
       <c r="X2" s="53"/>
-      <c r="Y2" s="99" t="s">
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="43">
         <v>0</v>
       </c>
       <c r="AA2" s="43"/>
-      <c r="AB2" s="99" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
       <c r="AC2" s="43">
@@ -7754,72 +8032,72 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="149">
+      <c r="B3" s="125">
         <v>5</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="89">
         <v>27</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="153" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="152" t="s">
+      <c r="M3" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="152" t="s">
+      <c r="N3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R3" s="102" t="s">
+      <c r="R3" s="4" t="s">
         <v>179</v>
       </c>
       <c r="S3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="102" t="s">
+      <c r="T3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="102" t="s">
+      <c r="U3" s="4" t="s">
         <v>165</v>
       </c>
       <c r="V3" s="53"/>
       <c r="W3" s="53"/>
       <c r="X3" s="53"/>
-      <c r="Y3" s="99" t="s">
+      <c r="Y3" t="s">
         <v>49</v>
       </c>
       <c r="Z3" s="43">
         <v>0</v>
       </c>
       <c r="AA3" s="43"/>
-      <c r="AB3" s="99" t="s">
+      <c r="AB3" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="43">
@@ -7828,72 +8106,72 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="149">
+      <c r="B4" s="125">
         <v>33.5</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="154">
+      <c r="E4" s="55">
         <v>4</v>
       </c>
       <c r="F4" s="56"/>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="151" t="s">
+      <c r="I4" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="155"/>
-      <c r="L4" s="153" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="152" t="s">
+      <c r="M4" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="152" t="s">
+      <c r="N4" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="152" t="s">
+      <c r="O4" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R4" s="102" t="s">
+      <c r="R4" s="4" t="s">
         <v>183</v>
       </c>
       <c r="S4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="4" t="s">
         <v>165</v>
       </c>
       <c r="V4" s="53"/>
       <c r="W4" s="53"/>
       <c r="X4" s="53"/>
-      <c r="Y4" s="99" t="s">
+      <c r="Y4" t="s">
         <v>57</v>
       </c>
       <c r="Z4" s="43">
         <v>0</v>
       </c>
       <c r="AA4" s="43"/>
-      <c r="AB4" s="99" t="s">
+      <c r="AB4" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="43">
@@ -7902,42 +8180,42 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="125">
         <v>4.5</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="151" t="s">
+      <c r="H5" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="153" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="152" t="s">
+      <c r="M5" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="152" t="s">
+      <c r="N5" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="152" t="s">
+      <c r="O5" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="P5" s="102"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="53" t="s">
         <v>186</v>
       </c>
@@ -7956,14 +8234,14 @@
       <c r="V5" s="53"/>
       <c r="W5" s="53"/>
       <c r="X5" s="53"/>
-      <c r="Y5" s="99" t="s">
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
       <c r="Z5" s="43">
         <v>56</v>
       </c>
       <c r="AA5" s="43"/>
-      <c r="AB5" s="99" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
       <c r="AC5" s="43">
@@ -7972,34 +8250,34 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="149">
+      <c r="B6" s="125">
         <v>15.5</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="54"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="153" t="s">
+      <c r="G6" s="124"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="152" t="s">
+      <c r="M6" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="157">
+      <c r="N6" s="131">
         <v>45310</v>
       </c>
-      <c r="O6" s="152" t="s">
+      <c r="O6" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="102"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="53" t="s">
         <v>189</v>
       </c>
@@ -8018,14 +8296,14 @@
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
       <c r="X6" s="53"/>
-      <c r="Y6" s="99" t="s">
+      <c r="Y6" t="s">
         <v>73</v>
       </c>
       <c r="Z6" s="43">
         <v>1</v>
       </c>
       <c r="AA6" s="43"/>
-      <c r="AB6" s="99" t="s">
+      <c r="AB6" t="s">
         <v>73</v>
       </c>
       <c r="AC6" s="43">
@@ -8034,24 +8312,24 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149">
+      <c r="A7" s="124"/>
+      <c r="B7" s="125">
         <v>11</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="54"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="53"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
@@ -8063,7 +8341,7 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
-      <c r="AB7" s="99" t="s">
+      <c r="AB7" t="s">
         <v>75</v>
       </c>
       <c r="AC7" s="44">
@@ -8071,21 +8349,21 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="53"/>
@@ -8108,15 +8386,15 @@
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
@@ -8139,15 +8417,15 @@
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
@@ -8170,15 +8448,15 @@
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="53"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
@@ -8370,24 +8648,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB16E3D-EA73-41E0-A7D8-833C6693BB44}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="99" customWidth="1"/>
-    <col min="2" max="14" width="9.140625" style="99"/>
-    <col min="15" max="15" width="21.140625" style="99" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="99"/>
-    <col min="17" max="17" width="19.85546875" style="99" customWidth="1"/>
-    <col min="18" max="18" width="50.28515625" style="99" customWidth="1"/>
-    <col min="19" max="24" width="9.140625" style="99"/>
-    <col min="25" max="25" width="28.5703125" style="99" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="99"/>
-    <col min="28" max="28" width="22.28515625" style="99" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" style="99" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="50.28515625" customWidth="1"/>
+    <col min="25" max="25" width="28.5703125" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.5" customHeight="1">
@@ -8453,87 +8726,87 @@
         <v>18</v>
       </c>
       <c r="X1" s="58"/>
-      <c r="Y1" s="98" t="s">
+      <c r="Y1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="58"/>
     </row>
     <row r="2" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="101">
+      <c r="B2" s="86">
         <v>4.5</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="67">
         <v>18</v>
       </c>
       <c r="F2" s="64"/>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="104" t="s">
+      <c r="N2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="102" t="s">
+      <c r="R2" s="4" t="s">
         <v>192</v>
       </c>
       <c r="S2" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="4" t="s">
         <v>194</v>
       </c>
       <c r="V2" s="64"/>
       <c r="W2" s="64"/>
       <c r="X2" s="64"/>
-      <c r="Y2" s="99" t="s">
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="66">
         <v>0</v>
       </c>
       <c r="AA2" s="66"/>
-      <c r="AB2" s="99" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
       <c r="AC2" s="66">
@@ -8543,72 +8816,72 @@
       <c r="AD2" s="64"/>
     </row>
     <row r="3" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="86">
         <v>2.5</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="89">
         <v>19</v>
       </c>
       <c r="F3" s="65"/>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="104" t="s">
+      <c r="M3" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="R3" s="111" t="s">
+      <c r="R3" s="93" t="s">
         <v>197</v>
       </c>
       <c r="S3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="111" t="s">
+      <c r="T3" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="111" t="s">
+      <c r="U3" s="93" t="s">
         <v>194</v>
       </c>
       <c r="V3" s="64"/>
       <c r="W3" s="64"/>
       <c r="X3" s="64"/>
-      <c r="Y3" s="99" t="s">
+      <c r="Y3" t="s">
         <v>49</v>
       </c>
       <c r="Z3" s="66">
         <v>0</v>
       </c>
       <c r="AA3" s="66"/>
-      <c r="AB3" s="99" t="s">
+      <c r="AB3" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="66">
@@ -8618,115 +8891,117 @@
       <c r="AD3" s="64"/>
     </row>
     <row r="4" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="103">
         <v>20</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="111">
+      <c r="E4" s="93">
         <v>2</v>
       </c>
       <c r="F4" s="69"/>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="138"/>
+      <c r="I4" s="88" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="138" t="s">
+      <c r="K4" s="104"/>
+      <c r="L4" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="138" t="s">
+      <c r="M4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="138" t="s">
+      <c r="N4" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="111" t="s">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="R4" s="131" t="s">
+      <c r="R4" s="110" t="s">
         <v>200</v>
       </c>
       <c r="S4" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="131" t="s">
+      <c r="T4" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="131" t="s">
+      <c r="U4" s="110" t="s">
         <v>48</v>
       </c>
       <c r="V4" s="73"/>
       <c r="W4" s="73"/>
       <c r="X4" s="75"/>
-      <c r="Y4" s="99" t="s">
+      <c r="Y4" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="110">
+      <c r="Z4" s="92">
         <v>0</v>
       </c>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="99" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="66">
         <f>'15 Jan 2024'!AC4+'22 Jan 2024'!Z4</f>
         <v>287</v>
       </c>
-      <c r="AD4" s="111"/>
+      <c r="AD4" s="93"/>
     </row>
     <row r="5" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="85">
         <v>6</v>
       </c>
       <c r="C5" s="72"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="70"/>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="159">
+      <c r="I5" s="133">
         <v>45324</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="129"/>
-      <c r="L5" s="106" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="159">
+      <c r="N5" s="133">
         <v>45324</v>
       </c>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="P5" s="130"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="64" t="s">
         <v>203</v>
       </c>
@@ -8745,51 +9020,51 @@
       <c r="V5" s="74"/>
       <c r="W5" s="74"/>
       <c r="X5" s="76"/>
-      <c r="Y5" s="99" t="s">
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
       <c r="Z5" s="66">
         <v>25</v>
       </c>
       <c r="AA5" s="66"/>
-      <c r="AB5" s="99" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
       <c r="AC5" s="66">
         <f>'15 Jan 2024'!AC5+'22 Jan 2024'!Z5</f>
         <v>9499</v>
       </c>
-      <c r="AD5" s="102"/>
+      <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="86">
         <v>6</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="67"/>
       <c r="F6" s="65"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="106" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="114">
+      <c r="N6" s="94">
         <v>45324</v>
       </c>
-      <c r="O6" s="104" t="s">
+      <c r="O6" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="102"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="64" t="s">
         <v>205</v>
       </c>
@@ -8808,14 +9083,14 @@
       <c r="V6" s="64"/>
       <c r="W6" s="64"/>
       <c r="X6" s="64"/>
-      <c r="Y6" s="99" t="s">
+      <c r="Y6" t="s">
         <v>73</v>
       </c>
       <c r="Z6" s="66">
         <v>5</v>
       </c>
       <c r="AA6" s="66"/>
-      <c r="AB6" s="99" t="s">
+      <c r="AB6" t="s">
         <v>73</v>
       </c>
       <c r="AC6" s="66">
@@ -8825,22 +9100,22 @@
       <c r="AD6" s="64"/>
     </row>
     <row r="7" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="67"/>
       <c r="F7" s="64"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="102"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
@@ -8852,7 +9127,7 @@
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
-      <c r="AB7" s="99" t="s">
+      <c r="AB7" t="s">
         <v>75</v>
       </c>
       <c r="AC7" s="68">
@@ -8861,22 +9136,22 @@
       <c r="AD7" s="64"/>
     </row>
     <row r="8" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="64"/>
       <c r="R8" s="64"/>
       <c r="S8" s="64"/>
@@ -8893,21 +9168,21 @@
       <c r="AD8" s="64"/>
     </row>
     <row r="9" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="67"/>
       <c r="F9" s="64"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="64"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="64"/>
@@ -8931,15 +9206,15 @@
       <c r="D10" s="64"/>
       <c r="E10" s="67"/>
       <c r="F10" s="64"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
@@ -8963,15 +9238,15 @@
       <c r="D11" s="64"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="64"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="64"/>
@@ -8995,15 +9270,15 @@
       <c r="D12" s="64"/>
       <c r="E12" s="67"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="64"/>
@@ -9247,18 +9522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471D62D1-BE92-49E0-AAF9-577D8E34443C}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="15" width="9.140625" style="99"/>
-    <col min="16" max="16" width="33.5703125" style="99" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="99" customWidth="1"/>
-    <col min="18" max="27" width="9.140625" style="99"/>
-    <col min="28" max="28" width="10.7109375" style="99" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="33.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="22.5" customHeight="1">
@@ -9289,16 +9563,16 @@
         <v>7</v>
       </c>
       <c r="K1" s="58"/>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="159" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="58"/>
@@ -9324,87 +9598,87 @@
         <v>18</v>
       </c>
       <c r="X1" s="58"/>
-      <c r="Y1" s="98" t="s">
+      <c r="Y1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="58"/>
     </row>
     <row r="2" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="101">
+      <c r="B2" s="86">
         <v>4.5</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="67">
         <v>20</v>
       </c>
       <c r="F2" s="64"/>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="100" t="s">
+      <c r="K2" s="153"/>
+      <c r="L2" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="118" t="s">
+      <c r="M2" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="118" t="s">
+      <c r="N2" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="118" t="s">
+      <c r="O2" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="111" t="s">
+      <c r="P2" s="95"/>
+      <c r="Q2" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="R2" s="111" t="s">
+      <c r="R2" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="S2" s="111" t="s">
+      <c r="S2" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="111" t="s">
+      <c r="U2" s="93" t="s">
         <v>194</v>
       </c>
       <c r="V2" s="64"/>
       <c r="W2" s="64"/>
       <c r="X2" s="64"/>
-      <c r="Y2" s="99" t="s">
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="66">
         <v>0</v>
       </c>
       <c r="AA2" s="66"/>
-      <c r="AB2" s="99" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
       <c r="AC2" s="66">
@@ -9414,62 +9688,62 @@
       <c r="AD2" s="64"/>
     </row>
     <row r="3" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="86">
         <v>4</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="89">
         <v>13.5</v>
       </c>
       <c r="F3" s="65"/>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="119" t="s">
+      <c r="K3" s="153"/>
+      <c r="L3" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="118" t="s">
+      <c r="M3" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="118" t="s">
+      <c r="N3" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="118" t="s">
+      <c r="O3" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
       <c r="S3" s="64"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
       <c r="V3" s="64"/>
       <c r="W3" s="64"/>
       <c r="X3" s="64"/>
-      <c r="Y3" s="99" t="s">
+      <c r="Y3" t="s">
         <v>49</v>
       </c>
       <c r="Z3" s="66">
         <v>15</v>
       </c>
       <c r="AA3" s="66"/>
-      <c r="AB3" s="99" t="s">
+      <c r="AB3" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="66">
@@ -9479,109 +9753,123 @@
       <c r="AD3" s="64"/>
     </row>
     <row r="4" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="86">
         <v>21</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="93">
         <v>2.5</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="136"/>
+      <c r="G4" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="120" t="s">
+      <c r="I4" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126" t="s">
+      <c r="K4" s="154"/>
+      <c r="L4" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="126" t="s">
+      <c r="M4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="126" t="s">
+      <c r="N4" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="99" t="s">
+      <c r="O4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="110">
+      <c r="Z4" s="92">
         <v>0</v>
       </c>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="99" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="66">
         <f>'22 Jan 2024'!AC4+'29 Jan 2024'!Z4</f>
         <v>287</v>
       </c>
-      <c r="AD4" s="111"/>
+      <c r="AD4" s="93"/>
     </row>
     <row r="5" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="86">
         <v>2</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="143">
+        <v>45330</v>
+      </c>
+      <c r="J5" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="155"/>
+      <c r="L5" s="148" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="144">
+        <v>45331</v>
+      </c>
+      <c r="O5" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="129"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="99" t="s">
+      <c r="P5" s="158"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
       <c r="Z5" s="66">
         <v>50</v>
       </c>
       <c r="AA5" s="66"/>
-      <c r="AB5" s="99" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
       <c r="AC5" s="66">
@@ -9591,42 +9879,34 @@
       <c r="AD5" s="64"/>
     </row>
     <row r="6" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="86">
         <v>4.5</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="67"/>
       <c r="F6" s="65"/>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="101" t="s">
+      <c r="M6" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="122">
+      <c r="N6" s="161">
         <v>45330</v>
       </c>
-      <c r="J6" s="101" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="123">
-        <v>45331</v>
-      </c>
-      <c r="O6" s="118" t="s">
-        <v>215</v>
-      </c>
-      <c r="P6" s="102"/>
+      <c r="O6" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="95"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="64"/>
       <c r="S6" s="64"/>
@@ -9635,14 +9915,14 @@
       <c r="V6" s="64"/>
       <c r="W6" s="64"/>
       <c r="X6" s="64"/>
-      <c r="Y6" s="99" t="s">
+      <c r="Y6" t="s">
         <v>73</v>
       </c>
       <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="66"/>
-      <c r="AB6" s="99" t="s">
+      <c r="AB6" t="s">
         <v>73</v>
       </c>
       <c r="AC6" s="66">
@@ -9652,30 +9932,22 @@
       <c r="AD6" s="64"/>
     </row>
     <row r="7" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="67"/>
       <c r="F7" s="64"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="119" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="123">
-        <v>45330</v>
-      </c>
-      <c r="O7" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="P7" s="102"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="95"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
@@ -9687,7 +9959,7 @@
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
-      <c r="AB7" s="99" t="s">
+      <c r="AB7" t="s">
         <v>75</v>
       </c>
       <c r="AC7" s="68">
@@ -9696,22 +9968,22 @@
       <c r="AD7" s="64"/>
     </row>
     <row r="8" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="64"/>
       <c r="R8" s="64"/>
       <c r="S8" s="64"/>
@@ -9728,21 +10000,21 @@
       <c r="AD8" s="64"/>
     </row>
     <row r="9" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="67"/>
       <c r="F9" s="64"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="64"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="64"/>
@@ -9766,15 +10038,15 @@
       <c r="D10" s="64"/>
       <c r="E10" s="67"/>
       <c r="F10" s="64"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
@@ -9798,15 +10070,15 @@
       <c r="D11" s="64"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="64"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="64"/>
@@ -9830,15 +10102,15 @@
       <c r="D12" s="64"/>
       <c r="E12" s="67"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="64"/>
@@ -10074,12 +10346,6 @@
       <c r="X19" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10088,17 +10354,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE904577-7140-458D-8E29-A42F64DB15CB}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:U5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="9.140625" style="140"/>
-    <col min="15" max="15" width="9.140625" style="147"/>
-    <col min="16" max="17" width="9.140625" style="140"/>
-    <col min="18" max="18" width="9.140625" style="147"/>
-    <col min="19" max="16384" width="9.140625" style="140"/>
+    <col min="1" max="1" width="24.28515625" style="17" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" style="17"/>
+    <col min="15" max="15" width="22.140625" style="123" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="17"/>
+    <col min="18" max="18" width="9.140625" style="123"/>
+    <col min="19" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24.75" customHeight="1">
@@ -10138,14 +10405,14 @@
       <c r="N1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="133" t="s">
+      <c r="O1" s="112" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="58"/>
       <c r="Q1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="133" t="s">
+      <c r="R1" s="112" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="58" t="s">
@@ -10164,404 +10431,402 @@
         <v>18</v>
       </c>
       <c r="X1" s="58"/>
-      <c r="Y1" s="139" t="s">
+      <c r="Y1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="139" t="s">
+      <c r="Z1" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="139" t="s">
+      <c r="AB1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="139" t="s">
+      <c r="AC1" s="116" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="58"/>
     </row>
     <row r="2" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="141">
+      <c r="B2" s="117">
         <v>2.5</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="67">
         <v>13</v>
       </c>
       <c r="F2" s="64"/>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="141" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="142" t="s">
+      <c r="M2" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="142" t="s">
+      <c r="N2" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="160" t="s">
+      <c r="O2" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102" t="s">
-        <v>216</v>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="64"/>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="64"/>
       <c r="W2" s="64"/>
       <c r="X2" s="64"/>
-      <c r="Y2" s="140" t="s">
+      <c r="Y2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="143">
+      <c r="Z2" s="119">
         <v>0</v>
       </c>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="140" t="s">
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="143">
+      <c r="AC2" s="119">
         <f>'29 Jan 2024'!AC2+'5 Feb 2024'!Z2</f>
         <v>288</v>
       </c>
       <c r="AD2" s="64"/>
     </row>
     <row r="3" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="141">
+      <c r="B3" s="117">
         <v>4.5</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="89">
         <v>8</v>
       </c>
       <c r="F3" s="64"/>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="142" t="s">
+      <c r="J3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="142" t="s">
+      <c r="M3" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="142" t="s">
+      <c r="N3" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="160" t="s">
+      <c r="O3" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102" t="s">
-        <v>218</v>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="64"/>
-      <c r="T3" s="102" t="s">
+      <c r="T3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="102" t="s">
+      <c r="U3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="V3" s="64"/>
       <c r="W3" s="64"/>
       <c r="X3" s="64"/>
-      <c r="Y3" s="140" t="s">
+      <c r="Y3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="143">
+      <c r="Z3" s="119">
         <v>10</v>
       </c>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="140" t="s">
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="143">
+      <c r="AC3" s="119">
         <f>'29 Jan 2024'!AC3+'5 Feb 2024'!Z3</f>
         <v>2267</v>
       </c>
       <c r="AD3" s="64"/>
     </row>
     <row r="4" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="117">
         <v>9.5</v>
       </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="4">
         <v>2.5</v>
       </c>
       <c r="F4" s="64"/>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102" t="s">
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="142" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="142" t="s">
+      <c r="M4" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="142" t="s">
+      <c r="N4" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="160" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102" t="s">
-        <v>219</v>
+      <c r="O4" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="64"/>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="4" t="s">
         <v>194</v>
       </c>
       <c r="V4" s="64"/>
       <c r="W4" s="64"/>
       <c r="X4" s="64"/>
-      <c r="Y4" s="140" t="s">
+      <c r="Y4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="143">
+      <c r="Z4" s="119">
         <v>0</v>
       </c>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="140" t="s">
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" s="143">
+      <c r="AC4" s="119">
         <f>'29 Jan 2024'!AC4+'5 Feb 2024'!Z4</f>
         <v>287</v>
       </c>
-      <c r="AD4" s="102"/>
+      <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="117">
         <v>5</v>
       </c>
       <c r="C5" s="64"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="64"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="161" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="111"/>
+      <c r="G5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="120">
+        <v>45337</v>
+      </c>
+      <c r="O5" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="93"/>
       <c r="R5" s="61"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="111"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="93"/>
       <c r="V5" s="64"/>
       <c r="W5" s="64"/>
       <c r="X5" s="64"/>
-      <c r="Y5" s="140" t="s">
+      <c r="Y5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="143">
+      <c r="Z5" s="119">
         <v>25</v>
       </c>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="140" t="s">
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="143">
+      <c r="AC5" s="119">
         <f>'29 Jan 2024'!AC5+'5 Feb 2024'!Z5</f>
         <v>9574</v>
       </c>
       <c r="AD5" s="64"/>
     </row>
     <row r="6" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="141">
+      <c r="B6" s="117">
         <v>2</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="M6" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="N6" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="142" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="144">
-        <v>45337</v>
-      </c>
-      <c r="O6" s="160" t="s">
-        <v>221</v>
-      </c>
-      <c r="P6" s="102"/>
+      <c r="O6" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="4"/>
       <c r="Q6" s="64"/>
-      <c r="R6" s="134"/>
+      <c r="R6" s="113"/>
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
       <c r="V6" s="64"/>
       <c r="W6" s="64"/>
       <c r="X6" s="64"/>
-      <c r="Y6" s="140" t="s">
+      <c r="Y6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="143">
+      <c r="Z6" s="119">
         <v>3</v>
       </c>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="140" t="s">
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" s="143">
+      <c r="AC6" s="119">
         <f>'29 Jan 2024'!AC6+'5 Feb 2024'!Z6</f>
         <v>240</v>
       </c>
       <c r="AD6" s="64"/>
     </row>
     <row r="7" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="67"/>
       <c r="F7" s="64"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="142" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="142" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="160" t="s">
-        <v>188</v>
-      </c>
-      <c r="P7" s="102"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="64"/>
-      <c r="R7" s="134"/>
+      <c r="R7" s="113"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
       <c r="V7" s="64"/>
       <c r="W7" s="64"/>
       <c r="X7" s="64"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="140" t="s">
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="146">
+      <c r="AC7" s="122">
         <v>0.997</v>
       </c>
       <c r="AD7" s="64"/>
     </row>
     <row r="8" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="102"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="64"/>
-      <c r="R8" s="134"/>
+      <c r="R8" s="113"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
@@ -10576,24 +10841,24 @@
       <c r="AD8" s="64"/>
     </row>
     <row r="9" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="67"/>
       <c r="F9" s="64"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="3"/>
       <c r="P9" s="64"/>
       <c r="Q9" s="64"/>
-      <c r="R9" s="134"/>
+      <c r="R9" s="113"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -10614,18 +10879,18 @@
       <c r="D10" s="64"/>
       <c r="E10" s="67"/>
       <c r="F10" s="64"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="3"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
-      <c r="R10" s="134"/>
+      <c r="R10" s="113"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
@@ -10646,18 +10911,18 @@
       <c r="D11" s="64"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="64"/>
       <c r="Q11" s="64"/>
-      <c r="R11" s="134"/>
+      <c r="R11" s="113"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
@@ -10678,18 +10943,18 @@
       <c r="D12" s="64"/>
       <c r="E12" s="67"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
-      <c r="R12" s="134"/>
+      <c r="R12" s="113"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
@@ -10718,10 +10983,10 @@
       <c r="L13" s="64"/>
       <c r="M13" s="64"/>
       <c r="N13" s="64"/>
-      <c r="O13" s="134"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="64"/>
       <c r="Q13" s="64"/>
-      <c r="R13" s="134"/>
+      <c r="R13" s="113"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
@@ -10750,10 +11015,10 @@
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
       <c r="N14" s="64"/>
-      <c r="O14" s="134"/>
+      <c r="O14" s="113"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
-      <c r="R14" s="134"/>
+      <c r="R14" s="113"/>
       <c r="S14" s="64"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
@@ -10782,10 +11047,10 @@
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
-      <c r="O15" s="134"/>
+      <c r="O15" s="113"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
-      <c r="R15" s="134"/>
+      <c r="R15" s="113"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
@@ -10814,10 +11079,10 @@
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
-      <c r="O16" s="134"/>
+      <c r="O16" s="113"/>
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
-      <c r="R16" s="134"/>
+      <c r="R16" s="113"/>
       <c r="S16" s="64"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
@@ -10846,10 +11111,10 @@
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
       <c r="N17" s="64"/>
-      <c r="O17" s="134"/>
+      <c r="O17" s="113"/>
       <c r="P17" s="64"/>
       <c r="Q17" s="64"/>
-      <c r="R17" s="134"/>
+      <c r="R17" s="113"/>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
       <c r="U17" s="64"/>
@@ -10878,10 +11143,10 @@
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
       <c r="N18" s="64"/>
-      <c r="O18" s="134"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="64"/>
-      <c r="R18" s="134"/>
+      <c r="R18" s="113"/>
       <c r="S18" s="64"/>
       <c r="T18" s="64"/>
       <c r="U18" s="64"/>
@@ -10910,10 +11175,10 @@
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
       <c r="N19" s="64"/>
-      <c r="O19" s="134"/>
+      <c r="O19" s="113"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
-      <c r="R19" s="134"/>
+      <c r="R19" s="113"/>
       <c r="S19" s="64"/>
       <c r="T19" s="64"/>
       <c r="U19" s="64"/>
@@ -11695,13 +11960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0BD2C2-7B83-4CA4-B890-5538C1DA992A}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1">
@@ -11767,29 +12032,29 @@
         <v>18</v>
       </c>
       <c r="X1" s="58"/>
-      <c r="Y1" s="98" t="s">
+      <c r="Y1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="58"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="101">
+      <c r="B2" s="86">
         <v>2.5</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="67">
@@ -11806,48 +12071,48 @@
         <v>29</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="R2" s="102" t="s">
-        <v>223</v>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="S2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="64"/>
       <c r="W2" s="64"/>
       <c r="X2" s="64"/>
-      <c r="Y2" s="99" t="s">
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="66">
         <v>0</v>
       </c>
       <c r="AA2" s="66"/>
-      <c r="AB2" s="99" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
       <c r="AC2" s="66">
@@ -11857,62 +12122,62 @@
       <c r="AD2" s="64"/>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="86">
         <v>8.5</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="89">
         <v>14</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="79">
         <v>45342</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="M3" s="79" t="s">
+      <c r="L3" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="81">
+      <c r="N3" s="83">
         <v>45342</v>
       </c>
-      <c r="O3" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
+      <c r="O3" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
       <c r="S3" s="64"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
       <c r="V3" s="64"/>
       <c r="W3" s="64"/>
       <c r="X3" s="64"/>
-      <c r="Y3" s="99" t="s">
+      <c r="Y3" t="s">
         <v>49</v>
       </c>
       <c r="Z3" s="66">
         <v>5</v>
       </c>
       <c r="AA3" s="66"/>
-      <c r="AB3" s="99" t="s">
+      <c r="AB3" t="s">
         <v>49</v>
       </c>
       <c r="AC3" s="66">
@@ -11922,81 +12187,81 @@
       <c r="AD3" s="64"/>
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="86">
         <v>2</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="93">
         <v>5</v>
       </c>
-      <c r="F4" s="90"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="62" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="79">
         <v>45344</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="181"/>
+      <c r="L4" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="81">
+      <c r="N4" s="83">
         <v>45344</v>
       </c>
-      <c r="O4" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="99" t="s">
+      <c r="O4" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="110">
+      <c r="Z4" s="92">
         <v>0</v>
       </c>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="99" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="66">
         <f>'5 Feb 2024'!AC4+'12 Feb 2024'!Z4</f>
         <v>287</v>
       </c>
-      <c r="AD4" s="111"/>
+      <c r="AD4" s="93"/>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1">
-      <c r="A5" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="101">
+      <c r="A5" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="86">
         <v>3</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="91"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="62" t="s">
         <v>59</v>
       </c>
@@ -12007,38 +12272,38 @@
         <v>29</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="182"/>
+      <c r="L5" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="99" t="s">
+      <c r="O5" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
       <c r="Z5" s="66">
         <v>10</v>
       </c>
       <c r="AA5" s="66"/>
-      <c r="AB5" s="99" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
       <c r="AC5" s="66">
@@ -12048,42 +12313,42 @@
       <c r="AD5" s="64"/>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1">
-      <c r="A6" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="101">
+      <c r="A6" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="86">
         <v>3.5</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="67"/>
       <c r="F6" s="65"/>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="84">
         <v>45343</v>
       </c>
-      <c r="J6" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6" s="137"/>
-      <c r="L6" s="80" t="s">
+      <c r="J6" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="114"/>
+      <c r="L6" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="81">
+      <c r="N6" s="142">
         <v>45343</v>
       </c>
-      <c r="O6" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="P6" s="102"/>
+      <c r="O6" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="4"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="64"/>
       <c r="S6" s="64"/>
@@ -12092,14 +12357,14 @@
       <c r="V6" s="64"/>
       <c r="W6" s="64"/>
       <c r="X6" s="64"/>
-      <c r="Y6" s="99" t="s">
+      <c r="Y6" t="s">
         <v>73</v>
       </c>
       <c r="Z6" s="66">
         <v>1</v>
       </c>
       <c r="AA6" s="66"/>
-      <c r="AB6" s="99" t="s">
+      <c r="AB6" t="s">
         <v>73</v>
       </c>
       <c r="AC6" s="66">
@@ -12109,28 +12374,26 @@
       <c r="AD6" s="64"/>
     </row>
     <row r="7" spans="1:30" ht="30" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="86">
         <v>7.5</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="102"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="95"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
@@ -12142,7 +12405,7 @@
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
-      <c r="AB7" s="99" t="s">
+      <c r="AB7" t="s">
         <v>75</v>
       </c>
       <c r="AC7" s="68">
@@ -12151,26 +12414,26 @@
       <c r="AD7" s="64"/>
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="86">
         <v>12</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="64"/>
       <c r="R8" s="64"/>
       <c r="S8" s="64"/>
@@ -12187,21 +12450,21 @@
       <c r="AD8" s="64"/>
     </row>
     <row r="9" spans="1:30" ht="30" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="67"/>
       <c r="F9" s="64"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="64"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="64"/>
@@ -12225,15 +12488,15 @@
       <c r="D10" s="64"/>
       <c r="E10" s="67"/>
       <c r="F10" s="64"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
@@ -12257,15 +12520,15 @@
       <c r="D11" s="64"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="64"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="64"/>
@@ -12289,15 +12552,15 @@
       <c r="D12" s="64"/>
       <c r="E12" s="67"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="64"/>
@@ -12533,25 +12796,1707 @@
       <c r="X19" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+  <mergeCells count="1">
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CBB6D1-296E-40B6-A5F4-5513056DFA76}">
+  <dimension ref="A1:AD19"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="30" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="58"/>
+    </row>
+    <row r="2" spans="1:30" ht="30" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="86">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="67">
+        <v>16</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="165" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="166" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="66">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="66"/>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="66">
+        <f>'12 Feb 2024'!AC2+'19 Feb 2024'!Z2</f>
+        <v>288</v>
+      </c>
+      <c r="AD2" s="64"/>
+    </row>
+    <row r="3" spans="1:30" ht="30" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="86">
+        <v>3</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="89">
+        <v>5</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="167">
+        <v>45349</v>
+      </c>
+      <c r="J3" s="165" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="169">
+        <v>45349</v>
+      </c>
+      <c r="O3" s="166" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" t="s">
+        <v>235</v>
+      </c>
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="66">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="66"/>
+      <c r="AB3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="66">
+        <f>'12 Feb 2024'!AC3+'19 Feb 2024'!Z3</f>
+        <v>2277</v>
+      </c>
+      <c r="AD3" s="64"/>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1">
+      <c r="A4" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="93">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="164" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="167">
+        <v>45349</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="169">
+        <v>45349</v>
+      </c>
+      <c r="O4" s="166" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="106"/>
+      <c r="Q4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="92"/>
+      <c r="AB4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="66">
+        <f>'12 Feb 2024'!AC4+'19 Feb 2024'!Z4</f>
+        <v>287</v>
+      </c>
+      <c r="AD4" s="93"/>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1">
+      <c r="A5" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="66">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="66"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="66">
+        <f>'12 Feb 2024'!AC5+'19 Feb 2024'!Z5</f>
+        <v>9599</v>
+      </c>
+      <c r="AD5" s="64"/>
+    </row>
+    <row r="6" spans="1:30" ht="30" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="173" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="174">
+        <v>45349</v>
+      </c>
+      <c r="J6" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="169">
+        <v>45349</v>
+      </c>
+      <c r="O6" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="66">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="66"/>
+      <c r="AB6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC6" s="163">
+        <f>'12 Feb 2024'!AC6+'19 Feb 2024'!Z6</f>
+        <v>244</v>
+      </c>
+      <c r="AD6" s="64"/>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1">
+      <c r="A7" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="86">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" s="68">
+        <v>0.997</v>
+      </c>
+      <c r="AD7" s="64"/>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1">
+      <c r="A8" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="86">
+        <v>3</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+    </row>
+    <row r="9" spans="1:30" ht="30" customHeight="1">
+      <c r="A9" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="86">
+        <v>4</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1">
+      <c r="A10" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="67">
+        <v>5</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+    </row>
+    <row r="17" spans="1:30" ht="30" customHeight="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+    </row>
+    <row r="18" spans="1:30" ht="30" customHeight="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+    </row>
+    <row r="19" spans="1:30" ht="30" customHeight="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E4353-551E-4544-921D-56A49B9B63E9}">
+  <dimension ref="A1:AD19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="35" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="30" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="58"/>
+    </row>
+    <row r="2" spans="1:30" ht="30" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="86">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="67">
+        <v>20</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="165" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="165" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="164" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="166" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R2" s="176" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="66">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="66"/>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="66">
+        <f>'12 Feb 2024'!AC2+'26 Feb 2024'!Z2</f>
+        <v>336</v>
+      </c>
+      <c r="AD2" s="64"/>
+    </row>
+    <row r="3" spans="1:30" ht="30" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="86">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="89">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="167">
+        <v>45358</v>
+      </c>
+      <c r="J3" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="169">
+        <v>45358</v>
+      </c>
+      <c r="O3" s="166" t="s">
+        <v>246</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="66">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="66"/>
+      <c r="AB3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="66">
+        <f>'12 Feb 2024'!AC3+'26 Feb 2024'!Z3</f>
+        <v>2275</v>
+      </c>
+      <c r="AD3" s="64"/>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1">
+      <c r="A4" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="93">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="164" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="167">
+        <v>45356</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="169">
+        <v>45356</v>
+      </c>
+      <c r="O4" s="166" t="s">
+        <v>249</v>
+      </c>
+      <c r="P4" s="106"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="92"/>
+      <c r="AB4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="66">
+        <f>'12 Feb 2024'!AC4+'26 Feb 2024'!Z4</f>
+        <v>287</v>
+      </c>
+      <c r="AD4" s="93"/>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1">
+      <c r="A5" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="86">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="66">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="66"/>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="66">
+        <f>'12 Feb 2024'!AC5+'26 Feb 2024'!Z5</f>
+        <v>9594</v>
+      </c>
+      <c r="AD5" s="64"/>
+    </row>
+    <row r="6" spans="1:30" ht="30" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="86">
+        <v>3.5</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="173" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="166" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="66"/>
+      <c r="AB6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC6" s="163">
+        <f>'12 Feb 2024'!AC6+'26 Feb 2024'!Z6</f>
+        <v>242</v>
+      </c>
+      <c r="AD6" s="64"/>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1">
+      <c r="A7" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="86">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" s="68">
+        <v>0.997</v>
+      </c>
+      <c r="AD7" s="64"/>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1">
+      <c r="A8" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="86">
+        <v>11</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+    </row>
+    <row r="9" spans="1:30" ht="30" customHeight="1">
+      <c r="A9" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+    </row>
+    <row r="17" spans="1:30" ht="30" customHeight="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+    </row>
+    <row r="18" spans="1:30" ht="30" customHeight="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+    </row>
+    <row r="19" spans="1:30" ht="30" customHeight="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15623,25 +17568,25 @@
       <c r="B5" s="11">
         <v>18.5</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="177" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="177" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -15669,15 +17614,15 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
       <c r="J6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
       <c r="O6" s="11" t="s">
         <v>109</v>
       </c>
@@ -15703,25 +17648,25 @@
       <c r="B7" s="11">
         <v>4.5</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="178">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="82" t="s">
+      <c r="M7" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="83">
+      <c r="N7" s="178">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -15738,15 +17683,15 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1">
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
       <c r="J8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
       <c r="O8" s="11" t="s">
         <v>113</v>
       </c>
@@ -15765,18 +17710,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16049,13 +17994,13 @@
         <v>116</v>
       </c>
       <c r="K4" s="53"/>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="179" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -16096,22 +18041,22 @@
       <c r="D5" s="53"/>
       <c r="E5" s="54"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="179" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="K5" s="53"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
       <c r="O5" s="3" t="s">
         <v>109</v>
       </c>
@@ -16150,20 +18095,20 @@
       <c r="D6" s="53"/>
       <c r="E6" s="54"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
       <c r="J6" s="3" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="53"/>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="180">
         <v>45261</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -16204,22 +18149,22 @@
       <c r="D7" s="53"/>
       <c r="E7" s="54"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="180">
         <v>45261</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K7" s="53"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
       <c r="O7" s="3" t="s">
         <v>119</v>
       </c>
@@ -16253,9 +18198,9 @@
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
       <c r="J8" s="3" t="s">
         <v>120</v>
       </c>
@@ -16532,18 +18477,18 @@
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16941,9 +18886,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="34"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="83"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="178"/>
       <c r="O6" s="11"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="53"/>
@@ -16985,9 +18930,9 @@
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
       <c r="O7" s="11"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="53"/>
@@ -17308,15 +19253,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -17493,14 +19429,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BBAF66D-4BC2-43CA-BF71-6498E992AD75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BBAF66D-4BC2-43CA-BF71-6498E992AD75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
 </file>